--- a/jpcore-r4/feature/swg1-「通常の文字列検索」に濁点・半濁点の処理を追記する/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/feature/swg1-「通常の文字列検索」に濁点・半濁点の処理を追記する/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3129" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3202" uniqueCount="522">
   <si>
     <t>Property</t>
   </si>
@@ -692,23 +692,17 @@
     <t>MedicationAdministration.medication[x]</t>
   </si>
   <si>
-    <t>What was administered　医薬品</t>
-  </si>
-  <si>
-    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.
-投与された薬剤を識別する。既知の薬のリストから薬を識別するコード情報を設定する。</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.
-【JP-CORE】
-ひとつのtext要素と、複数のcoding 要素を記述できる。処方オーダ時に選択または入力し、実際に処方箋に印字される文字列を必ずtext要素に格納した上で、それをコード化した情報を1個以上のcoding 要素に記述する。
-厚生労働省標準であるHOT9コード（販社指定が不要な場合にはHOT7コード）または広く流通しているYJコードを用いるか、一般名処方の場合には厚生労働省保険局一般名処方マスタのコードを使用して、Coding要素（コードsystemを識別するURI、医薬品のコード、そのコード表における医薬品の名称の3つからなる）で記述する。
--なお、上記のいずれの標準的コードも付番されていない医薬品や医療材料の場合には、薬機法の下で使用されているGS1標準の識別コードであるGTIN(Global Trade Item Number)の調剤包装単位（最少包装単位、個別包装単位）14桁を使用する。
--ひとつの処方薬、医療材料を複数のコード体系のコードで記述してもよく、その場合にcoding 要素を繰り返して記述する。-ただし、ひとつの処方薬を複数のコードで繰り返し記述する場合には、それらのコードが指し示す処方薬、医療材料は当然同一でなければならない。-また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
+    <t>CodeableConcept
+Reference</t>
+  </si>
+  <si>
+    <t>What was administered</t>
+  </si>
+  <si>
+    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
   </si>
   <si>
     <t>Codes identifying substance or product that can be administered.</t>
@@ -717,6 +711,13 @@
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Event.code</t>
   </si>
   <si>
@@ -729,14 +730,19 @@
     <t>RXA-5-Administered Code</t>
   </si>
   <si>
+    <t>medicationCodeableConcept</t>
+  </si>
+  <si>
+    <t>処方する製剤を表すコード。</t>
+  </si>
+  <si>
     <t>MedicationAdministration.medication[x].id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing 要素間参照用の一意のID</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.
-リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない任意の文字列値にすることができる。</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -793,12 +799,6 @@
     <t>MedicationAdministration.medication[x].coding.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
     <t>MedicationAdministration.medication[x].coding.extension</t>
   </si>
   <si>
@@ -939,6 +939,13 @@
   </si>
   <si>
     <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>medicationReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Medication)
+</t>
   </si>
   <si>
     <t>MedicationAdministration.subject</t>
@@ -1114,8 +1121,8 @@
     <t>MedicationAdministration.effective[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime
-</t>
+    <t>dateTime
+Period</t>
   </si>
   <si>
     <t>Start and end time of administration　開始時間と終了時間</t>
@@ -1993,7 +2000,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN86"/>
+  <dimension ref="A1:AN88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2003,7 +2010,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="57.0859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.30859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.47265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -4459,16 +4466,16 @@
         <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4497,25 +4504,23 @@
         <v>201</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>213</v>
@@ -4533,16 +4538,16 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4550,9 +4555,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4570,18 +4577,20 @@
         <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>88</v>
+        <v>197</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -4606,13 +4615,13 @@
         <v>77</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>77</v>
+        <v>227</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>77</v>
@@ -4630,10 +4639,10 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -4642,19 +4651,19 @@
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4666,14 +4675,14 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>77</v>
@@ -4685,7 +4694,7 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>229</v>
@@ -4693,9 +4702,7 @@
       <c r="L24" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>163</v>
-      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>77</v>
@@ -4732,37 +4739,37 @@
         <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AC24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE24" t="s" s="2">
+      <c r="AF24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4780,11 +4787,11 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>79</v>
@@ -4796,23 +4803,21 @@
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L25" t="s" s="2">
-        <v>236</v>
-      </c>
       <c r="M25" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4848,19 +4853,19 @@
         <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4872,19 +4877,19 @@
         <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4892,7 +4897,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4900,10 +4905,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>77</v>
@@ -4912,19 +4917,23 @@
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>239</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L26" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4972,31 +4981,31 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>77</v>
+        <v>246</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -5004,18 +5013,18 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>77</v>
@@ -5027,7 +5036,7 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>229</v>
@@ -5035,9 +5044,7 @@
       <c r="L27" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>163</v>
-      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>77</v>
@@ -5074,37 +5081,37 @@
         <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AC27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE27" t="s" s="2">
+      <c r="AF27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5118,18 +5125,18 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>77</v>
@@ -5138,23 +5145,21 @@
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>77</v>
       </c>
@@ -5190,43 +5195,43 @@
         <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>253</v>
+        <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5234,7 +5239,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5242,7 +5247,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>86</v>
@@ -5257,18 +5262,20 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
       </c>
@@ -5316,7 +5323,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5334,13 +5341,13 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5348,7 +5355,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5356,7 +5363,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>86</v>
@@ -5371,18 +5378,18 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5430,7 +5437,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5448,13 +5455,13 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5462,7 +5469,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5485,17 +5492,17 @@
         <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5544,7 +5551,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5562,13 +5569,13 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5576,7 +5583,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5584,7 +5591,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>86</v>
@@ -5599,19 +5606,17 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>276</v>
+        <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5660,7 +5665,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5678,13 +5683,13 @@
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5692,7 +5697,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5715,19 +5720,19 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>279</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5776,7 +5781,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5794,13 +5799,13 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5808,7 +5813,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5816,7 +5821,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>86</v>
@@ -5831,18 +5836,20 @@
         <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>293</v>
+        <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5893,7 +5900,7 @@
         <v>292</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>86</v>
@@ -5905,16 +5912,16 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>297</v>
+        <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>299</v>
+        <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5922,9 +5929,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="B35" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="C35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5942,18 +5951,20 @@
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>88</v>
+        <v>296</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>77</v>
@@ -6002,10 +6013,10 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>86</v>
@@ -6014,19 +6025,19 @@
         <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -6034,18 +6045,18 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>77</v>
@@ -6054,19 +6065,19 @@
         <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>131</v>
+        <v>298</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>229</v>
+        <v>299</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>163</v>
+        <v>301</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6104,43 +6115,43 @@
         <v>77</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>232</v>
+        <v>297</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>227</v>
+        <v>303</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>77</v>
+        <v>304</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6148,7 +6159,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6168,20 +6179,18 @@
         <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>304</v>
+        <v>229</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>77</v>
@@ -6230,7 +6239,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>307</v>
+        <v>231</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6239,16 +6248,16 @@
         <v>86</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>308</v>
+        <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6262,18 +6271,18 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>77</v>
@@ -6282,19 +6291,19 @@
         <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>310</v>
+        <v>234</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>311</v>
+        <v>235</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>312</v>
+        <v>163</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6320,49 +6329,49 @@
         <v>77</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>313</v>
+        <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>314</v>
+        <v>77</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>315</v>
+        <v>77</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>316</v>
+        <v>237</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6376,7 +6385,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6399,16 +6408,16 @@
         <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>167</v>
+        <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6458,7 +6467,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6467,7 +6476,7 @@
         <v>86</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>77</v>
+        <v>313</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>98</v>
@@ -6476,7 +6485,7 @@
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>322</v>
+        <v>129</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6490,7 +6499,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6513,16 +6522,16 @@
         <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6548,13 +6557,13 @@
         <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>77</v>
+        <v>318</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
@@ -6572,7 +6581,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6604,7 +6613,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6624,19 +6633,19 @@
         <v>77</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>329</v>
+        <v>167</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6686,7 +6695,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6701,16 +6710,16 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>332</v>
+        <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>334</v>
+        <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>335</v>
+        <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6718,7 +6727,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6729,7 +6738,7 @@
         <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>77</v>
@@ -6738,19 +6747,19 @@
         <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>337</v>
+        <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6800,13 +6809,13 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>77</v>
@@ -6818,10 +6827,10 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>340</v>
+        <v>129</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>334</v>
+        <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -6832,7 +6841,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6840,7 +6849,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>86</v>
@@ -6852,19 +6861,19 @@
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>345</v>
+        <v>301</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6914,10 +6923,10 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>86</v>
@@ -6929,16 +6938,16 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -6946,7 +6955,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6966,18 +6975,20 @@
         <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -7026,7 +7037,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7041,16 +7052,16 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>354</v>
+        <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>357</v>
+        <v>77</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -7058,7 +7069,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7066,7 +7077,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>86</v>
@@ -7078,18 +7089,20 @@
         <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>347</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>243</v>
+        <v>348</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>77</v>
@@ -7138,10 +7151,10 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>226</v>
+        <v>346</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>86</v>
@@ -7150,19 +7163,19 @@
         <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>77</v>
+        <v>351</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>227</v>
+        <v>352</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>77</v>
+        <v>353</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7170,11 +7183,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7190,20 +7203,18 @@
         <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>131</v>
+        <v>356</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>229</v>
+        <v>357</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>77</v>
@@ -7252,7 +7263,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>232</v>
+        <v>355</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7264,19 +7275,19 @@
         <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>227</v>
+        <v>360</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>77</v>
+        <v>361</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>77</v>
+        <v>362</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7284,43 +7295,39 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>361</v>
+        <v>77</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>362</v>
+        <v>229</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7368,25 +7375,25 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>364</v>
+        <v>231</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7400,18 +7407,18 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>77</v>
@@ -7423,15 +7430,17 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>366</v>
+        <v>234</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>77</v>
@@ -7456,13 +7465,13 @@
         <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>368</v>
+        <v>77</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>369</v>
+        <v>77</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>77</v>
@@ -7480,25 +7489,25 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>365</v>
+        <v>237</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>370</v>
+        <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>371</v>
+        <v>232</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7512,39 +7521,43 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>77</v>
+        <v>366</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>373</v>
+        <v>131</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7592,25 +7605,25 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>376</v>
+        <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>377</v>
+        <v>129</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7624,7 +7637,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7635,7 +7648,7 @@
         <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>77</v>
@@ -7650,10 +7663,10 @@
         <v>197</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7683,10 +7696,10 @@
         <v>201</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
@@ -7704,13 +7717,13 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>77</v>
@@ -7719,16 +7732,16 @@
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>385</v>
+        <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>77</v>
@@ -7736,7 +7749,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7744,10 +7757,10 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>77</v>
@@ -7756,20 +7769,18 @@
         <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>77</v>
@@ -7818,13 +7829,13 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>77</v>
@@ -7833,24 +7844,24 @@
         <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>393</v>
+        <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>394</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7861,7 +7872,7 @@
         <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>77</v>
@@ -7873,20 +7884,16 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>396</v>
+        <v>197</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7910,13 +7917,13 @@
         <v>77</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>77</v>
+        <v>386</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>77</v>
+        <v>387</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>77</v>
@@ -7934,13 +7941,13 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>77</v>
@@ -7949,16 +7956,16 @@
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -7966,7 +7973,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7989,16 +7996,16 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>296</v>
+        <v>395</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8048,7 +8055,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8063,24 +8070,24 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>77</v>
+        <v>396</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>77</v>
+        <v>398</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>409</v>
+        <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>77</v>
+        <v>399</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8091,7 +8098,7 @@
         <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>77</v>
@@ -8103,18 +8110,20 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
       </c>
@@ -8162,13 +8171,13 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>77</v>
@@ -8177,16 +8186,16 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>77</v>
+        <v>408</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8194,7 +8203,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8205,7 +8214,7 @@
         <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>77</v>
@@ -8217,15 +8226,17 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>351</v>
+        <v>410</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>77</v>
@@ -8274,31 +8285,31 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>420</v>
+        <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>77</v>
+        <v>414</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8306,7 +8317,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8317,7 +8328,7 @@
         <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>77</v>
@@ -8329,15 +8340,17 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>88</v>
+        <v>416</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>243</v>
+        <v>417</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>77</v>
@@ -8386,25 +8399,25 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>226</v>
+        <v>415</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>77</v>
+        <v>420</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>227</v>
+        <v>421</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8418,7 +8431,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8429,7 +8442,7 @@
         <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>77</v>
@@ -8441,13 +8454,13 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>131</v>
+        <v>356</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>132</v>
+        <v>423</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>133</v>
+        <v>424</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8486,35 +8499,37 @@
         <v>77</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB57" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>232</v>
+        <v>422</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>137</v>
+        <v>425</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>77</v>
+        <v>426</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8528,11 +8543,9 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8541,7 +8554,7 @@
         <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>77</v>
@@ -8553,13 +8566,13 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>425</v>
+        <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>426</v>
+        <v>229</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>427</v>
+        <v>230</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8610,25 +8623,25 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8642,11 +8655,9 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B59" t="s" s="2">
         <v>428</v>
       </c>
+      <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8667,13 +8678,13 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>429</v>
+        <v>131</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>430</v>
+        <v>132</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>431</v>
+        <v>133</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8712,19 +8723,17 @@
         <v>77</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB59" s="2"/>
       <c r="AC59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8733,7 +8742,7 @@
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>137</v>
@@ -8756,10 +8765,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>77</v>
@@ -8781,13 +8790,13 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8838,7 +8847,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8870,11 +8879,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="B61" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="C61" t="s" s="2">
-        <v>361</v>
+        <v>77</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8887,26 +8898,22 @@
         <v>77</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>131</v>
+        <v>434</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>362</v>
+        <v>435</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8954,7 +8961,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>364</v>
+        <v>237</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8963,7 +8970,7 @@
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>137</v>
@@ -8972,7 +8979,7 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8986,9 +8993,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B62" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
         <v>77</v>
       </c>
@@ -8997,7 +9006,7 @@
         <v>78</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>77</v>
@@ -9009,13 +9018,13 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>88</v>
+        <v>438</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9066,25 +9075,25 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>437</v>
+        <v>237</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>440</v>
+        <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -9102,37 +9111,39 @@
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>77</v>
+        <v>366</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>442</v>
+        <v>367</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>443</v>
+        <v>368</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9156,13 +9167,13 @@
         <v>77</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>445</v>
+        <v>77</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>446</v>
+        <v>77</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>77</v>
@@ -9180,31 +9191,31 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>441</v>
+        <v>369</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>447</v>
+        <v>129</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>448</v>
+        <v>77</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
@@ -9212,7 +9223,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9238,10 +9249,10 @@
         <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>243</v>
+        <v>443</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>244</v>
+        <v>444</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9292,7 +9303,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>226</v>
+        <v>442</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9304,13 +9315,13 @@
         <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>227</v>
+        <v>445</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9324,18 +9335,18 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>77</v>
@@ -9347,16 +9358,16 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>229</v>
+        <v>447</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>230</v>
+        <v>448</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>163</v>
+        <v>449</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9382,55 +9393,55 @@
         <v>77</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>77</v>
+        <v>450</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>77</v>
+        <v>451</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="AC65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>232</v>
+        <v>446</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>227</v>
+        <v>452</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>77</v>
+        <v>453</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9438,11 +9449,9 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9451,7 +9460,7 @@
         <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>77</v>
@@ -9463,13 +9472,13 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>452</v>
+        <v>88</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>453</v>
+        <v>229</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>454</v>
+        <v>230</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9520,25 +9529,25 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK66" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9556,7 +9565,7 @@
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9572,23 +9581,21 @@
         <v>77</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="K67" t="s" s="2">
-        <v>456</v>
-      </c>
       <c r="L67" t="s" s="2">
-        <v>457</v>
+        <v>235</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9624,19 +9631,19 @@
         <v>77</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9648,19 +9655,19 @@
         <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
@@ -9668,9 +9675,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="B68" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="C68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9679,7 +9688,7 @@
         <v>78</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>77</v>
@@ -9688,23 +9697,19 @@
         <v>77</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>88</v>
+        <v>457</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>285</v>
+        <v>458</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9752,31 +9757,31 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>289</v>
+        <v>237</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>290</v>
+        <v>77</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>291</v>
+        <v>77</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>77</v>
@@ -9795,7 +9800,7 @@
         <v>78</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>77</v>
@@ -9804,10 +9809,10 @@
         <v>77</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>197</v>
+        <v>239</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>461</v>
@@ -9816,9 +9821,11 @@
         <v>462</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
       </c>
@@ -9842,13 +9849,13 @@
         <v>77</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>463</v>
+        <v>77</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>464</v>
+        <v>77</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>77</v>
@@ -9866,13 +9873,13 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>460</v>
+        <v>244</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>77</v>
@@ -9884,13 +9891,13 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>465</v>
+        <v>245</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>466</v>
+        <v>246</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
@@ -9898,7 +9905,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9918,19 +9925,23 @@
         <v>77</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>243</v>
+        <v>288</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>77</v>
       </c>
@@ -9978,7 +9989,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>226</v>
+        <v>292</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -9990,19 +10001,19 @@
         <v>77</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>227</v>
+        <v>293</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
@@ -10010,18 +10021,18 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>77</v>
@@ -10033,16 +10044,16 @@
         <v>77</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>229</v>
+        <v>466</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>230</v>
+        <v>467</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10068,55 +10079,55 @@
         <v>77</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>77</v>
+        <v>468</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>77</v>
+        <v>469</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="AC71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>232</v>
+        <v>465</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>227</v>
+        <v>470</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>77</v>
+        <v>471</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
@@ -10124,11 +10135,9 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>469</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
         <v>77</v>
       </c>
@@ -10137,7 +10146,7 @@
         <v>78</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>77</v>
@@ -10149,13 +10158,13 @@
         <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>470</v>
+        <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>471</v>
+        <v>229</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>472</v>
+        <v>230</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10206,25 +10215,25 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK72" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -10242,7 +10251,7 @@
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10258,23 +10267,21 @@
         <v>77</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="K73" t="s" s="2">
-        <v>456</v>
-      </c>
       <c r="L73" t="s" s="2">
-        <v>457</v>
+        <v>235</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>77</v>
       </c>
@@ -10310,19 +10317,19 @@
         <v>77</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10334,19 +10341,19 @@
         <v>77</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>77</v>
@@ -10354,9 +10361,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B74" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10365,7 +10374,7 @@
         <v>78</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>77</v>
@@ -10374,23 +10383,19 @@
         <v>77</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>88</v>
+        <v>475</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>285</v>
+        <v>476</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10438,31 +10443,31 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>289</v>
+        <v>237</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>290</v>
+        <v>77</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>291</v>
+        <v>77</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>77</v>
@@ -10470,7 +10475,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10481,7 +10486,7 @@
         <v>78</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>77</v>
@@ -10490,21 +10495,23 @@
         <v>77</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>197</v>
+        <v>239</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
       </c>
@@ -10528,13 +10535,13 @@
         <v>77</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>479</v>
+        <v>77</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>480</v>
+        <v>77</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>77</v>
@@ -10552,13 +10559,13 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>475</v>
+        <v>244</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>77</v>
@@ -10570,13 +10577,13 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>481</v>
+        <v>245</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>482</v>
+        <v>246</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>77</v>
@@ -10584,7 +10591,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10604,19 +10611,23 @@
         <v>77</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>243</v>
+        <v>288</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
       </c>
@@ -10664,7 +10675,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>226</v>
+        <v>292</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -10676,19 +10687,19 @@
         <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>227</v>
+        <v>293</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>77</v>
@@ -10696,18 +10707,18 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>77</v>
@@ -10719,16 +10730,16 @@
         <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>229</v>
+        <v>481</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>230</v>
+        <v>482</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>163</v>
+        <v>483</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10754,55 +10765,55 @@
         <v>77</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>77</v>
+        <v>484</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>77</v>
+        <v>485</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="AC77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>232</v>
+        <v>480</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>227</v>
+        <v>486</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>77</v>
+        <v>487</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>77</v>
@@ -10810,11 +10821,9 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
         <v>77</v>
       </c>
@@ -10823,7 +10832,7 @@
         <v>78</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>77</v>
@@ -10835,13 +10844,13 @@
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>486</v>
+        <v>88</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>487</v>
+        <v>229</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>488</v>
+        <v>230</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10892,25 +10901,25 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK78" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
@@ -10928,7 +10937,7 @@
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10944,23 +10953,21 @@
         <v>77</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K79" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="K79" t="s" s="2">
-        <v>456</v>
-      </c>
       <c r="L79" t="s" s="2">
-        <v>457</v>
+        <v>235</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>77</v>
       </c>
@@ -10996,19 +11003,19 @@
         <v>77</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="AC79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD79" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11020,19 +11027,19 @@
         <v>77</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>77</v>
@@ -11040,9 +11047,11 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B80" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
         <v>77</v>
       </c>
@@ -11051,7 +11060,7 @@
         <v>78</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>77</v>
@@ -11060,23 +11069,19 @@
         <v>77</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>88</v>
+        <v>491</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>285</v>
+        <v>492</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>77</v>
       </c>
@@ -11124,31 +11129,31 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>289</v>
+        <v>237</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>290</v>
+        <v>77</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>291</v>
+        <v>77</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>77</v>
@@ -11156,7 +11161,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11167,7 +11172,7 @@
         <v>78</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>77</v>
@@ -11176,21 +11181,23 @@
         <v>77</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>492</v>
+        <v>239</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>493</v>
+        <v>461</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>494</v>
+        <v>462</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>77</v>
       </c>
@@ -11238,13 +11245,13 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>491</v>
+        <v>244</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>77</v>
@@ -11256,13 +11263,13 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>496</v>
+        <v>245</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>497</v>
+        <v>246</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>77</v>
@@ -11270,7 +11277,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11290,21 +11297,23 @@
         <v>77</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>499</v>
+        <v>88</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>500</v>
+        <v>288</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>501</v>
+        <v>289</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>77</v>
       </c>
@@ -11352,7 +11361,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>498</v>
+        <v>292</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -11370,13 +11379,13 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>503</v>
+        <v>293</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>504</v>
+        <v>294</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>77</v>
@@ -11384,7 +11393,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11407,15 +11416,17 @@
         <v>77</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>88</v>
+        <v>497</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>243</v>
+        <v>498</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M83" s="2"/>
+        <v>499</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>500</v>
+      </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>77</v>
@@ -11464,7 +11475,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>226</v>
+        <v>496</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -11476,19 +11487,19 @@
         <v>77</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>227</v>
+        <v>501</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>77</v>
+        <v>502</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>77</v>
@@ -11496,18 +11507,18 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>77</v>
@@ -11519,16 +11530,16 @@
         <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>131</v>
+        <v>504</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>229</v>
+        <v>505</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>230</v>
+        <v>506</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>163</v>
+        <v>507</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11566,43 +11577,43 @@
         <v>77</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="AC84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD84" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>232</v>
+        <v>503</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>227</v>
+        <v>508</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>77</v>
+        <v>509</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>77</v>
@@ -11610,11 +11621,9 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>507</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
         <v>77</v>
       </c>
@@ -11623,7 +11632,7 @@
         <v>78</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>77</v>
@@ -11635,13 +11644,13 @@
         <v>77</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>508</v>
+        <v>88</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>509</v>
+        <v>229</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>510</v>
+        <v>230</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11692,25 +11701,25 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK85" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
@@ -11728,7 +11737,7 @@
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11747,16 +11756,16 @@
         <v>77</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>512</v>
+        <v>131</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>513</v>
+        <v>234</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>514</v>
+        <v>235</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>515</v>
+        <v>163</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -11794,19 +11803,19 @@
         <v>77</v>
       </c>
       <c r="AA86" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="AC86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD86" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>511</v>
+        <v>237</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -11818,21 +11827,249 @@
         <v>77</v>
       </c>
       <c r="AI86" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="C87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI88" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN86" t="s" s="2">
+      <c r="AJ88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN88" t="s" s="2">
         <v>77</v>
       </c>
     </row>
